--- a/src/test/java/resources/testdata.xlsx
+++ b/src/test/java/resources/testdata.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28656" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="urls" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -22,52 +22,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Test Case Name</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>onur@swtestacademy.com</t>
-  </si>
-  <si>
-    <t>11122233444</t>
-  </si>
-  <si>
-    <t>Invalid Username and Invalid Password Login Test</t>
-  </si>
-  <si>
-    <t>Empty Username and Empty Password Login Test</t>
-  </si>
-  <si>
-    <t>Password Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username Error </t>
-  </si>
-  <si>
-    <t>Bu alanın doldurulması zorunludur.</t>
-  </si>
-  <si>
-    <t>Lütfen e-posta adresinizi girin.</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>E-posta adresiniz veya şifreniz hatalı</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>/c/womens</t>
+  </si>
+  <si>
+    <t>responseCode</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>/c/Womens</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>/c/Mens</t>
+  </si>
+  <si>
+    <t>/c/mens</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Womens</t>
+  </si>
+  <si>
+    <t>Mens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,22 +76,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,11 +111,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -157,18 +134,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,229 +438,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.7109375" customWidth="1"/>
+    <col min="4" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29"/>
-      <c r="D29"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>